--- a/src/Assets/Data/Files/cat_master.xlsx
+++ b/src/Assets/Data/Files/cat_master.xlsx
@@ -19,9 +19,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>catg_id</t>
-  </si>
   <si>
     <t>category_name</t>
   </si>
@@ -361,52 +358,43 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="15.71094" customWidth="1"/>
+    <col min="1" max="1" width="15.71094" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1"/>
@@ -415,7 +403,6 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1"/>
@@ -424,7 +411,6 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1"/>
@@ -433,7 +419,6 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1"/>
@@ -442,7 +427,6 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1"/>
@@ -451,7 +435,6 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1"/>
@@ -460,7 +443,6 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1"/>
@@ -469,7 +451,6 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1"/>
@@ -478,7 +459,6 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.052778" bottom="1.052778" header="0.7875" footer="0.7875"/>
